--- a/tradept/Excel/Localization/english/D地点属性字段_PlaceStatus_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D地点属性字段_PlaceStatus_hotfix.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp - copia\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380BFC1E-0023-4EC1-AFE0-9B757494236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CB7B01-BCCE-40F1-A922-1F2EA9D2902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -325,202 +325,202 @@
     <t/>
   </si>
   <si>
-    <t>Desarrollo</t>
-  </si>
-  <si>
-    <t>Prosperidad</t>
-  </si>
-  <si>
-    <t>Bono de prosperidad</t>
-  </si>
-  <si>
-    <t>Defensa</t>
-  </si>
-  <si>
-    <t>Bonificación Defensa</t>
-  </si>
-  <si>
-    <t>Bonificación de liderazgo</t>
-  </si>
-  <si>
-    <t>Regenar</t>
-  </si>
-  <si>
-    <t>Bufón de entrenamiento</t>
-  </si>
-  <si>
-    <t>Comercio</t>
-  </si>
-  <si>
-    <t>Bono de recluta</t>
-  </si>
-  <si>
-    <t>Producción de madera</t>
-  </si>
-  <si>
-    <t>Producción de hierro</t>
-  </si>
-  <si>
-    <t>Producción de jade</t>
-  </si>
-  <si>
-    <t>Producción total</t>
-  </si>
-  <si>
-    <t>Entrenamiento de escuadrón</t>
-  </si>
-  <si>
-    <t>Base de nasir</t>
-  </si>
-  <si>
-    <t>Base de Akhal</t>
-  </si>
-  <si>
-    <t>Base de diam</t>
-  </si>
-  <si>
-    <t>Base de ifrit</t>
-  </si>
-  <si>
-    <t>Base de dakn</t>
-  </si>
-  <si>
-    <t>Base thur</t>
-  </si>
-  <si>
-    <t>Construir la base mod</t>
-  </si>
-  <si>
-    <t>Construcción en curso</t>
-  </si>
-  <si>
-    <t>Antigua machina</t>
-  </si>
-  <si>
-    <t>Taller de Balista</t>
-  </si>
-  <si>
     <t>Torre</t>
   </si>
   <si>
-    <t>Torre extra</t>
-  </si>
-  <si>
-    <t>Torre oculta</t>
-  </si>
-  <si>
-    <t>Torre tóxica</t>
-  </si>
-  <si>
-    <t>Torre de escarcha</t>
-  </si>
-  <si>
-    <t>Torre de Scattershot</t>
-  </si>
-  <si>
-    <t>Torre de bombardeo</t>
-  </si>
-  <si>
-    <t>Aumenta el EXP ganado de la capacitación en [%ps_加速训练%]%% para las tropas en el área.</t>
-  </si>
-  <si>
-    <t>El comercio está disponible en el área local.</t>
-  </si>
-  <si>
-    <t>El número de tropas disponibles para reclutar dobles cada semana.</t>
-  </si>
-  <si>
-    <t>Cantidad de madera producida por ciclo.</t>
-  </si>
-  <si>
-    <t>Cantidad de hierro de hierro producido por ciclo.</t>
-  </si>
-  <si>
-    <t>Cantidad de jade producido por ciclo.</t>
-  </si>
-  <si>
-    <t>Cantidad de UTAR producida por ciclo.</t>
-  </si>
-  <si>
-    <t>DIARIO EXP GANADO POR SOLDADOS GUARDADOS.</t>
-  </si>
-  <si>
-    <t>Una ciudad que sigue a la cultura de Nasir.</t>
-  </si>
-  <si>
-    <t>Una ciudad que sigue a la cultura de Ifrits.</t>
-  </si>
-  <si>
-    <t>Una ciudad que sigue la cultura Dakn.</t>
-  </si>
-  <si>
-    <t>Una ciudad autolorda.</t>
-  </si>
-  <si>
-    <t>El límite en la construcción simultánea.</t>
-  </si>
-  <si>
-    <t>El nivel de la antigua Machina que puedes estudiar.</t>
-  </si>
-  <si>
-    <t>Talleres de Balista</t>
-  </si>
-  <si>
-    <t>Torres</t>
-  </si>
-  <si>
-    <t>Torres extra</t>
-  </si>
-  <si>
-    <t>Torres ocultas</t>
-  </si>
-  <si>
-    <t>Torres tóxicos</t>
-  </si>
-  <si>
-    <t>Torres de escarcha</t>
-  </si>
-  <si>
-    <t>Torres de Scattershot</t>
-  </si>
-  <si>
-    <t>Torres de bombardeo</t>
-  </si>
-  <si>
-    <t>Tu nivel de desarrollo.</t>
-  </si>
-  <si>
-    <t>La prosperidad de tu base.</t>
-  </si>
-  <si>
-    <t>Tu bonificación de prosperidad.</t>
-  </si>
-  <si>
-    <t>La defensa de tu base.</t>
-  </si>
-  <si>
-    <t>Tu bonificación de defensa.</t>
-  </si>
-  <si>
-    <t>Tu bonificación de liderazgo.</t>
-  </si>
-  <si>
-    <t>Aumente la velocidad de regeneracion en [%ps_恢复%]%% para las tropas en el área.</t>
-  </si>
-  <si>
-    <t>Una ciudad que sigue a la cultura de Diam.</t>
-  </si>
-  <si>
-    <t>Una ciudad que sigue a la cultura Akal.</t>
-  </si>
-  <si>
-    <t>Una ciudad que sigue a la cultura Thur.</t>
-  </si>
-  <si>
-    <t>El Gremio de Magos puede reclutar a hechiceros.</t>
-  </si>
-  <si>
-    <t>Colegio de Hechiceria</t>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Seu nível de desenvolvimento.</t>
+  </si>
+  <si>
+    <t>Prosperidade</t>
+  </si>
+  <si>
+    <t>Sua Prosperidade na base.</t>
+  </si>
+  <si>
+    <t>Bônus de Prosperidade</t>
+  </si>
+  <si>
+    <t>Seu bônus de Prosperidade.</t>
+  </si>
+  <si>
+    <t>Defesa</t>
+  </si>
+  <si>
+    <t>Sua Defesa na base.</t>
+  </si>
+  <si>
+    <t>Bônus de Defesa</t>
+  </si>
+  <si>
+    <t>Seu bônus de Defesa.</t>
+  </si>
+  <si>
+    <t>Bônus de Liderança</t>
+  </si>
+  <si>
+    <t>Seu bônus de Liderança.</t>
+  </si>
+  <si>
+    <t>Regeneração</t>
+  </si>
+  <si>
+    <t>Aumenta a velocidade de Regeneração em [%ps_恢复%]%% para tropas na área.</t>
+  </si>
+  <si>
+    <t>Bônus de Treinamento</t>
+  </si>
+  <si>
+    <t>Aumenta a EXP ganha no treinamento em [%ps_加速训练%]%% para tropas na área.</t>
+  </si>
+  <si>
+    <t>Comércio</t>
+  </si>
+  <si>
+    <t>O comércio está disponível na área local.</t>
+  </si>
+  <si>
+    <t>Bônus de Recrutamento</t>
+  </si>
+  <si>
+    <t>Dobre o número de tropas disponíveis para recrutamento a cada semana.</t>
+  </si>
+  <si>
+    <t>Produção de Madeira</t>
+  </si>
+  <si>
+    <t>Quantidade de Madeira produzida a cada semana.</t>
+  </si>
+  <si>
+    <t>Produção de Pedra de Ferro</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedra de Ferro produzida a cada semana.</t>
+  </si>
+  <si>
+    <t>Produção de Jade</t>
+  </si>
+  <si>
+    <t>Quantidade de Jade produzida a cada semana.</t>
+  </si>
+  <si>
+    <t>Produção de Utar</t>
+  </si>
+  <si>
+    <t>Quantidade de Utar produzida a cada semana.</t>
+  </si>
+  <si>
+    <t>Treinamento de Esquadrão</t>
+  </si>
+  <si>
+    <t>EXP diária ganha pelas tropas guarnecidas.</t>
+  </si>
+  <si>
+    <t>Base Nasir</t>
+  </si>
+  <si>
+    <t>Uma cidade que segue a cultura de Nasir.</t>
+  </si>
+  <si>
+    <t>Base Akhal</t>
+  </si>
+  <si>
+    <t>Uma cidade que segue a cultura de Akhal.</t>
+  </si>
+  <si>
+    <t>Base Dhib</t>
+  </si>
+  <si>
+    <t>Uma cidade que segue a cultura de Dhib.</t>
+  </si>
+  <si>
+    <t>Base Ifrit</t>
+  </si>
+  <si>
+    <t>Uma cidade que segue a cultura de Ifrit.</t>
+  </si>
+  <si>
+    <t>Base Dakn</t>
+  </si>
+  <si>
+    <t>Uma cidade que segue a cultura de Dakn.</t>
+  </si>
+  <si>
+    <t>Base Thur</t>
+  </si>
+  <si>
+    <t>Uma cidade que segue a cultura de Thur.</t>
+  </si>
+  <si>
+    <t>Base Modificação de Construção</t>
+  </si>
+  <si>
+    <t>Uma cidade autoconstruída.</t>
+  </si>
+  <si>
+    <t>Construção em Andamento</t>
+  </si>
+  <si>
+    <t>O limite de construção simultânea.</t>
+  </si>
+  <si>
+    <t>Máquina Antiga</t>
+  </si>
+  <si>
+    <t>O nível de Máquina Antiga que você pode estudar.</t>
+  </si>
+  <si>
+    <t>Oficina de Balista</t>
+  </si>
+  <si>
+    <t>Oficinas de Balista.</t>
+  </si>
+  <si>
+    <t>Torres.</t>
+  </si>
+  <si>
+    <t>Torre Extra</t>
+  </si>
+  <si>
+    <t>Torres Extras.</t>
+  </si>
+  <si>
+    <t>Torre Oculta</t>
+  </si>
+  <si>
+    <t>Torres Ocultas.</t>
+  </si>
+  <si>
+    <t>Torre Tóxica</t>
+  </si>
+  <si>
+    <t>Torres Tóxicas.</t>
+  </si>
+  <si>
+    <t>Torre Gélida</t>
+  </si>
+  <si>
+    <t>Torres Gélidas.</t>
+  </si>
+  <si>
+    <t>Torre Espalhadora</t>
+  </si>
+  <si>
+    <t>Torres Espalhadoras.</t>
+  </si>
+  <si>
+    <t>Torre de Barragem</t>
+  </si>
+  <si>
+    <t>Torres de Barragem.</t>
+  </si>
+  <si>
+    <t>Colégio dos Feiticeiros</t>
+  </si>
+  <si>
+    <t>Pode recrutar Magos do Colégio dos Feiticeiros.</t>
   </si>
 </sst>
 </file>
@@ -665,11 +665,11 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,13 +859,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEA04"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0B4B4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1051,87 +1044,78 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="普通 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1148,7 +1132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1446,588 +1430,588 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>101</v>
+      <c r="C2" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>155</v>
+      <c r="E2" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>102</v>
+      <c r="C3" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>156</v>
+      <c r="E3" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>103</v>
+      <c r="C4" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>157</v>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>104</v>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>158</v>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>105</v>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>159</v>
+      <c r="E6" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>106</v>
+      <c r="C7" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>160</v>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>107</v>
+      <c r="C8" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>161</v>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>108</v>
+      <c r="C9" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>133</v>
+      <c r="E9" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>109</v>
+      <c r="C10" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>134</v>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>110</v>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>135</v>
+      <c r="E11" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>111</v>
+      <c r="C12" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>136</v>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>112</v>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>137</v>
+      <c r="E13" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>113</v>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>138</v>
+      <c r="E14" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>114</v>
+      <c r="C15" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>139</v>
+      <c r="E15" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>115</v>
+      <c r="C16" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>140</v>
+      <c r="E16" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>116</v>
+      <c r="C17" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>141</v>
+      <c r="E17" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>117</v>
+      <c r="C18" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>163</v>
+      <c r="E18" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>118</v>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>162</v>
+      <c r="E19" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>119</v>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>142</v>
+      <c r="E20" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>120</v>
+      <c r="C21" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>143</v>
+      <c r="E21" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>121</v>
+      <c r="C22" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>164</v>
+      <c r="E22" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>122</v>
+      <c r="C23" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>144</v>
+      <c r="E23" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>123</v>
+      <c r="C24" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>145</v>
+      <c r="E24" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>124</v>
+      <c r="C25" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>146</v>
+      <c r="E25" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>125</v>
+      <c r="C26" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>147</v>
+      <c r="E26" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>126</v>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>148</v>
+      <c r="E27" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>127</v>
+      <c r="C28" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>149</v>
+      <c r="E28" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>128</v>
+      <c r="C29" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>150</v>
+      <c r="E29" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>129</v>
+      <c r="C30" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>151</v>
+      <c r="E30" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>130</v>
+      <c r="C31" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>152</v>
+      <c r="E31" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>131</v>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>153</v>
+      <c r="E32" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>132</v>
+      <c r="C33" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>154</v>
+      <c r="E33" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="F34" t="s">
         <v>100</v>

--- a/tradept/Excel/Localization/english/D地点属性字段_PlaceStatus_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/D地点属性字段_PlaceStatus_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CB7B01-BCCE-40F1-A922-1F2EA9D2902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62C93CD-1B7C-4693-8599-FB41908125A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,11 +1430,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection sqref="A1:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1">
       <c r="A1" s="2" t="s">
